--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.514887512826</v>
+        <v>349.15445606788</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.451323979747</v>
+        <v>477.7285303995441</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.9135134105643</v>
+        <v>432.1347899544144</v>
       </c>
       <c r="AD2" t="n">
-        <v>241514.887512826</v>
+        <v>349154.45606788</v>
       </c>
       <c r="AE2" t="n">
-        <v>330451.323979747</v>
+        <v>477728.5303995441</v>
       </c>
       <c r="AF2" t="n">
         <v>7.633075409723621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>298913.5134105643</v>
+        <v>432134.7899544144</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.8922389982087</v>
+        <v>289.9889304313463</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.237868254192</v>
+        <v>396.7756480248663</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.874113810376</v>
+        <v>358.9079370554918</v>
       </c>
       <c r="AD3" t="n">
-        <v>201892.2389982087</v>
+        <v>289988.9304313463</v>
       </c>
       <c r="AE3" t="n">
-        <v>276237.868254192</v>
+        <v>396775.6480248663</v>
       </c>
       <c r="AF3" t="n">
         <v>8.887826706260004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>249874.113810376</v>
+        <v>358907.9370554918</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.3944824806964</v>
+        <v>297.4521050239676</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.8710128794355</v>
+        <v>406.9870927545161</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.397007439811</v>
+        <v>368.1448158319966</v>
       </c>
       <c r="AD2" t="n">
-        <v>210394.4824806963</v>
+        <v>297452.1050239676</v>
       </c>
       <c r="AE2" t="n">
-        <v>287871.0128794355</v>
+        <v>406987.0927545162</v>
       </c>
       <c r="AF2" t="n">
         <v>9.408509945118761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>260397.007439811</v>
+        <v>368144.8158319966</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.8743161804484</v>
+        <v>284.8977733049386</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.7403689966906</v>
+        <v>389.8097022385147</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.9012881662202</v>
+        <v>352.6068113582232</v>
       </c>
       <c r="AD3" t="n">
-        <v>197874.3161804484</v>
+        <v>284897.7733049386</v>
       </c>
       <c r="AE3" t="n">
-        <v>270740.3689966906</v>
+        <v>389809.7022385147</v>
       </c>
       <c r="AF3" t="n">
         <v>9.879561928983508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>244901.2881662202</v>
+        <v>352606.8113582233</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.3683552332785</v>
+        <v>281.8548417929844</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.7338938553802</v>
+        <v>385.6462290991953</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.1361327576899</v>
+        <v>348.8406942518492</v>
       </c>
       <c r="AD2" t="n">
-        <v>188368.3552332786</v>
+        <v>281854.8417929844</v>
       </c>
       <c r="AE2" t="n">
-        <v>257733.8938553803</v>
+        <v>385646.2290991953</v>
       </c>
       <c r="AF2" t="n">
         <v>1.333952829874976e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>233136.1327576899</v>
+        <v>348840.6942518493</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.5475793083704</v>
+        <v>276.7892252381974</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.083848492386</v>
+        <v>378.7152290497056</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.0709338293408</v>
+        <v>342.5711791193633</v>
       </c>
       <c r="AD2" t="n">
-        <v>191547.5793083704</v>
+        <v>276789.2252381974</v>
       </c>
       <c r="AE2" t="n">
-        <v>262083.8484923861</v>
+        <v>378715.2290497056</v>
       </c>
       <c r="AF2" t="n">
         <v>1.189685527531445e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>237070.9338293409</v>
+        <v>342571.1791193633</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.6205388396126</v>
+        <v>288.0988053326059</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.6566514093218</v>
+        <v>394.1894954783354</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.1118762573641</v>
+        <v>356.568603278314</v>
       </c>
       <c r="AD2" t="n">
-        <v>195620.5388396126</v>
+        <v>288098.805332606</v>
       </c>
       <c r="AE2" t="n">
-        <v>267656.6514093218</v>
+        <v>394189.4954783354</v>
       </c>
       <c r="AF2" t="n">
         <v>1.447336296079591e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>242111.8762573641</v>
+        <v>356568.603278314</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.2595467328441</v>
+        <v>310.3146683023336</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.7911201869362</v>
+        <v>424.5862192882194</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.9429852077902</v>
+        <v>384.0643064298523</v>
       </c>
       <c r="AD2" t="n">
-        <v>213259.5467328441</v>
+        <v>310314.6683023336</v>
       </c>
       <c r="AE2" t="n">
-        <v>291791.1201869362</v>
+        <v>424586.2192882193</v>
       </c>
       <c r="AF2" t="n">
         <v>8.898071645543626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>263942.9852077902</v>
+        <v>384064.3064298523</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.6097008705138</v>
+        <v>285.888573933472</v>
       </c>
       <c r="AB3" t="n">
-        <v>271.7465547725205</v>
+        <v>391.1653593695128</v>
       </c>
       <c r="AC3" t="n">
-        <v>245.8114449837958</v>
+        <v>353.8330864753157</v>
       </c>
       <c r="AD3" t="n">
-        <v>198609.7008705139</v>
+        <v>285888.573933472</v>
       </c>
       <c r="AE3" t="n">
-        <v>271746.5547725206</v>
+        <v>391165.3593695128</v>
       </c>
       <c r="AF3" t="n">
         <v>9.688839739710399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>245811.4449837958</v>
+        <v>353833.0864753157</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.8972242686912</v>
+        <v>304.9135954255456</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.9811775549721</v>
+        <v>417.1962330996795</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.3556055217494</v>
+        <v>377.3796101512361</v>
       </c>
       <c r="AD2" t="n">
-        <v>203897.2242686912</v>
+        <v>304913.5954255456</v>
       </c>
       <c r="AE2" t="n">
-        <v>278981.1775549721</v>
+        <v>417196.2330996795</v>
       </c>
       <c r="AF2" t="n">
         <v>1.507425161798198e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>252355.6055217494</v>
+        <v>377379.6101512361</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.5329890612513</v>
+        <v>280.7274978871059</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.1686178232586</v>
+        <v>384.1037474322692</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.765858508286</v>
+        <v>347.4454248703281</v>
       </c>
       <c r="AD2" t="n">
-        <v>194532.9890612513</v>
+        <v>280727.4978871059</v>
       </c>
       <c r="AE2" t="n">
-        <v>266168.6178232586</v>
+        <v>384103.7474322693</v>
       </c>
       <c r="AF2" t="n">
         <v>1.084327072213874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>240765.858508286</v>
+        <v>347445.424870328</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.6226686694378</v>
+        <v>280.8171774952924</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.2913214195643</v>
+        <v>384.226451028575</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.8768514455759</v>
+        <v>347.556417807618</v>
       </c>
       <c r="AD3" t="n">
-        <v>194622.6686694378</v>
+        <v>280817.1774952923</v>
       </c>
       <c r="AE3" t="n">
-        <v>266291.3214195643</v>
+        <v>384226.451028575</v>
       </c>
       <c r="AF3" t="n">
         <v>1.08437009651311e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>240876.8514455759</v>
+        <v>347556.417807618</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.2069228507128</v>
+        <v>285.0667367515848</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.1954561165168</v>
+        <v>390.0408854803571</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.3129424100491</v>
+        <v>352.8159307959319</v>
       </c>
       <c r="AD2" t="n">
-        <v>198206.9228507128</v>
+        <v>285066.7367515847</v>
       </c>
       <c r="AE2" t="n">
-        <v>271195.4561165168</v>
+        <v>390040.8854803572</v>
       </c>
       <c r="AF2" t="n">
         <v>9.918055970949105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>245312.9424100491</v>
+        <v>352815.930795932</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.8190201311312</v>
+        <v>283.5773488055179</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.2964663856397</v>
+        <v>388.0030391853896</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.5951895938374</v>
+        <v>350.9725736912209</v>
       </c>
       <c r="AD3" t="n">
-        <v>196819.0201311312</v>
+        <v>283577.3488055179</v>
       </c>
       <c r="AE3" t="n">
-        <v>269296.4663856397</v>
+        <v>388003.0391853896</v>
       </c>
       <c r="AF3" t="n">
         <v>1.01965808004775e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>243595.1895938374</v>
+        <v>350972.573691221</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.7437221261565</v>
+        <v>336.0665760330809</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.9772520736622</v>
+        <v>459.8211155394154</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.1071424021768</v>
+        <v>415.9364336353217</v>
       </c>
       <c r="AD2" t="n">
-        <v>228743.7221261565</v>
+        <v>336066.5760330809</v>
       </c>
       <c r="AE2" t="n">
-        <v>312977.2520736622</v>
+        <v>459821.1155394154</v>
       </c>
       <c r="AF2" t="n">
         <v>8.018585729347234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>283107.1424021768</v>
+        <v>415936.4336353217</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.5936329779308</v>
+        <v>288.3576625423887</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.4610582067943</v>
+        <v>394.5436753327343</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.2668800201329</v>
+        <v>356.8889807045036</v>
       </c>
       <c r="AD3" t="n">
-        <v>200593.6329779307</v>
+        <v>288357.6625423887</v>
       </c>
       <c r="AE3" t="n">
-        <v>274461.0582067943</v>
+        <v>394543.6753327342</v>
       </c>
       <c r="AF3" t="n">
         <v>9.215580586497817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>248266.8800201329</v>
+        <v>356888.9807045036</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.5938148919327</v>
+        <v>278.1700075683044</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.5153541744716</v>
+        <v>380.6044763495751</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.3658186182595</v>
+        <v>344.2801193085084</v>
       </c>
       <c r="AD2" t="n">
-        <v>192593.8148919327</v>
+        <v>278170.0075683044</v>
       </c>
       <c r="AE2" t="n">
-        <v>263515.3541744716</v>
+        <v>380604.4763495751</v>
       </c>
       <c r="AF2" t="n">
         <v>1.151351326221546e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>238365.8186182595</v>
+        <v>344280.1193085084</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.4581854492592</v>
+        <v>274.0665857670828</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.2250476368001</v>
+        <v>374.9899936109504</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.4849729150589</v>
+        <v>339.201474922482</v>
       </c>
       <c r="AD2" t="n">
-        <v>189458.1854492592</v>
+        <v>274066.5857670828</v>
       </c>
       <c r="AE2" t="n">
-        <v>259225.0476368001</v>
+        <v>374989.9936109504</v>
       </c>
       <c r="AF2" t="n">
         <v>1.280758674685026e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>234484.9729150589</v>
+        <v>339201.474922482</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.6865492889341</v>
+        <v>280.3729362401029</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.1152139351447</v>
+        <v>383.6186205446837</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.4312356228282</v>
+        <v>347.0065978120139</v>
       </c>
       <c r="AD2" t="n">
-        <v>196686.5492889342</v>
+        <v>280372.9362401029</v>
       </c>
       <c r="AE2" t="n">
-        <v>269115.2139351447</v>
+        <v>383618.6205446837</v>
       </c>
       <c r="AF2" t="n">
         <v>1.388176075357145e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>243431.2356228282</v>
+        <v>347006.5978120139</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.0087937752346</v>
+        <v>331.3530483639431</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.7622259798666</v>
+        <v>453.3718590363364</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.7715854653997</v>
+        <v>410.1026851213083</v>
       </c>
       <c r="AD2" t="n">
-        <v>222008.7937752346</v>
+        <v>331353.0483639431</v>
       </c>
       <c r="AE2" t="n">
-        <v>303762.2259798666</v>
+        <v>453371.8590363364</v>
       </c>
       <c r="AF2" t="n">
         <v>1.539153388111393e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>274771.5854653997</v>
+        <v>410102.6851213083</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.1316431244663</v>
+        <v>282.6140746279382</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.3559668401878</v>
+        <v>386.6850449589675</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.7444500050038</v>
+        <v>349.7803669839521</v>
       </c>
       <c r="AD2" t="n">
-        <v>196131.6431244662</v>
+        <v>282614.0746279382</v>
       </c>
       <c r="AE2" t="n">
-        <v>268355.9668401878</v>
+        <v>386685.0449589675</v>
       </c>
       <c r="AF2" t="n">
         <v>1.040464545478262e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>242744.4500050038</v>
+        <v>349780.3669839521</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.6605103459135</v>
+        <v>282.1429418493854</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.711342187661</v>
+        <v>386.0404203064404</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.1613474245775</v>
+        <v>349.1972644035258</v>
       </c>
       <c r="AD3" t="n">
-        <v>195660.5103459135</v>
+        <v>282142.9418493854</v>
       </c>
       <c r="AE3" t="n">
-        <v>267711.342187661</v>
+        <v>386040.4203064403</v>
       </c>
       <c r="AF3" t="n">
         <v>1.05314482000209e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>242161.3474245775</v>
+        <v>349197.2644035257</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.8019814591226</v>
+        <v>323.0637841622394</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.9522327125895</v>
+        <v>442.0301220590383</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.4662652397734</v>
+        <v>399.8433876028957</v>
       </c>
       <c r="AD2" t="n">
-        <v>225801.9814591226</v>
+        <v>323063.7841622394</v>
       </c>
       <c r="AE2" t="n">
-        <v>308952.2327125896</v>
+        <v>442030.1220590383</v>
       </c>
       <c r="AF2" t="n">
         <v>8.444853144653626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.40104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279466.2652397734</v>
+        <v>399843.3876028957</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.6926337650458</v>
+        <v>287.2181076752023</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.2282713344458</v>
+        <v>392.9844860898373</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.1517485966537</v>
+        <v>355.4785982946128</v>
       </c>
       <c r="AD3" t="n">
-        <v>199692.6337650458</v>
+        <v>287218.1076752023</v>
       </c>
       <c r="AE3" t="n">
-        <v>273228.2713344458</v>
+        <v>392984.4860898373</v>
       </c>
       <c r="AF3" t="n">
         <v>9.4400262130897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>247151.7485966537</v>
+        <v>355478.5982946128</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.2021778845632</v>
+        <v>385.5205597274417</v>
       </c>
       <c r="AB2" t="n">
-        <v>366.9660520266706</v>
+        <v>527.4862377858198</v>
       </c>
       <c r="AC2" t="n">
-        <v>331.9433270613332</v>
+        <v>477.1436915831248</v>
       </c>
       <c r="AD2" t="n">
-        <v>268202.1778845632</v>
+        <v>385520.5597274416</v>
       </c>
       <c r="AE2" t="n">
-        <v>366966.0520266707</v>
+        <v>527486.2377858198</v>
       </c>
       <c r="AF2" t="n">
         <v>1.509256576679208e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>331943.3270613332</v>
+        <v>477143.6915831249</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.3751872691851</v>
+        <v>275.2616727873329</v>
       </c>
       <c r="AB2" t="n">
-        <v>260.4797299820872</v>
+        <v>376.6251643955749</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.6199101382699</v>
+        <v>340.6805873023986</v>
       </c>
       <c r="AD2" t="n">
-        <v>190375.1872691851</v>
+        <v>275261.672787333</v>
       </c>
       <c r="AE2" t="n">
-        <v>260479.7299820872</v>
+        <v>376625.1643955749</v>
       </c>
       <c r="AF2" t="n">
         <v>1.240096543440657e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>235619.9101382699</v>
+        <v>340680.5873023986</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.5302796932517</v>
+        <v>279.4233260088686</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.796666629547</v>
+        <v>382.3193219324622</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.5248444109561</v>
+        <v>345.8313024357658</v>
       </c>
       <c r="AD2" t="n">
-        <v>193530.2796932517</v>
+        <v>279423.3260088686</v>
       </c>
       <c r="AE2" t="n">
-        <v>264796.666629547</v>
+        <v>382319.3219324622</v>
       </c>
       <c r="AF2" t="n">
         <v>1.11868568677542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>239524.8444109561</v>
+        <v>345831.3024357658</v>
       </c>
     </row>
   </sheetData>
